--- a/Yearly.xlsx
+++ b/Yearly.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,45 +365,55 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>quantity</t>
+          <t>total_quantity</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>constrained_quantity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>total_revenue_rrp30</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>total_mispricing</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>adj_total_mispricing</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>total_overcomp</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>adj_total_overcomp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ave_mispricing</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>adj_ave_mispricing</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ave_overcomp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>adj_ave_overcomp</t>
         </is>
@@ -414,30 +424,36 @@
         <v>2013</v>
       </c>
       <c r="B2">
+        <v>191080704.9672817</v>
+      </c>
+      <c r="C2">
         <v>6774836.459022502</v>
       </c>
-      <c r="C2">
+      <c r="D2">
+        <v>11404997998.61257</v>
+      </c>
+      <c r="E2">
         <v>1089.651902284907</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>753.5331743741713</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>239.9243828180684</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>-97.63284864167413</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>160.8381115729731</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>111.2252936188062</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>35.414047891672</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>-14.41110043500016</v>
       </c>
     </row>
@@ -446,30 +462,36 @@
         <v>2014</v>
       </c>
       <c r="B3">
+        <v>189024130.7041867</v>
+      </c>
+      <c r="C3">
         <v>8368889.682704168</v>
       </c>
-      <c r="C3">
+      <c r="D3">
+        <v>8888774660.237196</v>
+      </c>
+      <c r="E3">
         <v>405.1054065660993</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>220.0190785786772</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>136.7300178278036</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>-48.95861560068422</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>48.40611143474902</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>26.29011576450657</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>16.33789224278832</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>-5.850073003335926</v>
       </c>
     </row>
@@ -478,31 +500,37 @@
         <v>2015</v>
       </c>
       <c r="B4">
-        <v>9042027.804265833</v>
+        <v>191113148.335795</v>
       </c>
       <c r="C4">
-        <v>293.9136460357042</v>
+        <v>9038120.2377325</v>
       </c>
       <c r="D4">
-        <v>206.6326802266047</v>
+        <v>8545125654.28039</v>
       </c>
       <c r="E4">
-        <v>201.1653048864411</v>
+        <v>293.9241352828953</v>
       </c>
       <c r="F4">
-        <v>110.8108962581727</v>
+        <v>206.6431694737957</v>
       </c>
       <c r="G4">
-        <v>32.50528005421994</v>
+        <v>201.1579522170407</v>
       </c>
       <c r="H4">
-        <v>22.85247122654499</v>
+        <v>110.8035435887723</v>
       </c>
       <c r="I4">
-        <v>22.24780870409796</v>
+        <v>32.52049403545394</v>
       </c>
       <c r="J4">
-        <v>12.25509350965439</v>
+        <v>22.86351188503758</v>
+      </c>
+      <c r="K4">
+        <v>22.25661386725561</v>
+      </c>
+      <c r="L4">
+        <v>12.25957839398814</v>
       </c>
     </row>
     <row r="5">
@@ -510,31 +538,37 @@
         <v>2016</v>
       </c>
       <c r="B5">
-        <v>13555934.04216</v>
+        <v>195405662.9290633</v>
       </c>
       <c r="C5">
-        <v>453.2820969989022</v>
+        <v>13554621.37549334</v>
       </c>
       <c r="D5">
-        <v>323.4345891516586</v>
+        <v>12574231807.54975</v>
       </c>
       <c r="E5">
-        <v>361.7646141764038</v>
+        <v>453.2881341540545</v>
       </c>
       <c r="F5">
-        <v>218.844308358061</v>
+        <v>323.4406263068109</v>
       </c>
       <c r="G5">
-        <v>33.43790959657666</v>
+        <v>361.7602830802111</v>
       </c>
       <c r="H5">
-        <v>23.85926253002943</v>
+        <v>218.8399772618684</v>
       </c>
       <c r="I5">
-        <v>26.68680837862503</v>
+        <v>33.44159320994361</v>
       </c>
       <c r="J5">
-        <v>16.14380150253301</v>
+        <v>23.86201852097392</v>
+      </c>
+      <c r="K5">
+        <v>26.68907327313999</v>
+      </c>
+      <c r="L5">
+        <v>16.14504538337969</v>
       </c>
     </row>
     <row r="6">
@@ -542,31 +576,37 @@
         <v>2017</v>
       </c>
       <c r="B6">
-        <v>5658933.536450833</v>
+        <v>198574647.7997583</v>
       </c>
       <c r="C6">
-        <v>786.5652464451556</v>
+        <v>5625604.619784167</v>
       </c>
       <c r="D6">
-        <v>335.7086206398627</v>
+        <v>20363129377.31668</v>
       </c>
       <c r="E6">
-        <v>621.4413764963838</v>
+        <v>787.0100897087642</v>
       </c>
       <c r="F6">
-        <v>168.8264141282359</v>
+        <v>336.1128076661805</v>
       </c>
       <c r="G6">
-        <v>138.9953144667031</v>
+        <v>621.0190872198784</v>
       </c>
       <c r="H6">
-        <v>59.32365497446932</v>
+        <v>168.4447810890215</v>
       </c>
       <c r="I6">
-        <v>109.815987852393</v>
+        <v>139.8978675004997</v>
       </c>
       <c r="J6">
-        <v>29.83360964407446</v>
+        <v>59.74696594995968</v>
+      </c>
+      <c r="K6">
+        <v>110.3915275232593</v>
+      </c>
+      <c r="L6">
+        <v>29.94252039978666</v>
       </c>
     </row>
     <row r="7">
@@ -574,31 +614,37 @@
         <v>2018</v>
       </c>
       <c r="B7">
-        <v>4860145.242536667</v>
+        <v>237782469.1053525</v>
       </c>
       <c r="C7">
-        <v>1416.047192777556</v>
+        <v>4836802.204603333</v>
       </c>
       <c r="D7">
-        <v>271.7747887536048</v>
+        <v>19550567768.90357</v>
       </c>
       <c r="E7">
-        <v>1281.930555682268</v>
+        <v>1416.664894589483</v>
       </c>
       <c r="F7">
-        <v>132.146017864177</v>
+        <v>272.3384409732844</v>
       </c>
       <c r="G7">
-        <v>291.3590277887406</v>
+        <v>1281.758641276771</v>
       </c>
       <c r="H7">
-        <v>55.91906726881207</v>
+        <v>132.0513123160449</v>
       </c>
       <c r="I7">
-        <v>263.7638366159582</v>
+        <v>292.8928731551602</v>
       </c>
       <c r="J7">
-        <v>27.18972608217892</v>
+        <v>56.30547404111162</v>
+      </c>
+      <c r="K7">
+        <v>265.0012522854215</v>
+      </c>
+      <c r="L7">
+        <v>27.30136704584851</v>
       </c>
     </row>
     <row r="8">
@@ -606,63 +652,37 @@
         <v>2019</v>
       </c>
       <c r="B8">
-        <v>8258534.105811668</v>
+        <v>216560191.4688392</v>
       </c>
       <c r="C8">
-        <v>2910.002243106495</v>
+        <v>8214710.082343333</v>
       </c>
       <c r="D8">
-        <v>709.2748268296205</v>
+        <v>20293484691.20095</v>
       </c>
       <c r="E8">
-        <v>2650.879910602007</v>
+        <v>2911.59355064993</v>
       </c>
       <c r="F8">
-        <v>431.7774975272848</v>
+        <v>710.8301742823567</v>
       </c>
       <c r="G8">
-        <v>352.3630472215012</v>
+        <v>2650.785506478846</v>
       </c>
       <c r="H8">
-        <v>85.88386482904902</v>
+        <v>431.7575278085004</v>
       </c>
       <c r="I8">
-        <v>320.9867364641067</v>
+        <v>354.4365560639928</v>
       </c>
       <c r="J8">
-        <v>52.28258332473747</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>2020</v>
-      </c>
-      <c r="B9">
-        <v>45.23299999999999</v>
-      </c>
-      <c r="C9">
-        <v>0.0002663808030966654</v>
-      </c>
-      <c r="D9">
-        <v>0.0002663808030966654</v>
-      </c>
-      <c r="E9">
-        <v>-0.0002663808030966654</v>
-      </c>
-      <c r="F9">
-        <v>-0.0002663808030966654</v>
-      </c>
-      <c r="G9">
-        <v>5.889081049160247</v>
-      </c>
-      <c r="H9">
-        <v>5.889081049160247</v>
-      </c>
-      <c r="I9">
-        <v>-5.889081049160247</v>
-      </c>
-      <c r="J9">
-        <v>-5.889081049160247</v>
+        <v>86.53137690278471</v>
+      </c>
+      <c r="K8">
+        <v>322.6876517743986</v>
+      </c>
+      <c r="L8">
+        <v>52.55907067694555</v>
       </c>
     </row>
   </sheetData>
